--- a/riga_doctors_sample.xlsx
+++ b/riga_doctors_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranjith/Desktop/Ranjith/TSI_BigData/Bigdata_Project/archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DBB78-A710-1748-B25E-757B2340521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DFBAA-DDB6-F44F-B351-DC0AA5741B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="18680" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="2260" windowWidth="25580" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>Gastroenterologist</t>
   </si>
 </sst>
 </file>
@@ -641,11 +644,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1212,7 +1223,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -1252,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>

--- a/riga_doctors_sample.xlsx
+++ b/riga_doctors_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranjith/Desktop/Ranjith/TSI_BigData/Bigdata_Project/archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DFBAA-DDB6-F44F-B351-DC0AA5741B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A15541-F1E8-8D49-9F7E-C7E71ECA4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2260" windowWidth="25580" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="2260" windowWidth="25580" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>Gastroenterologist</t>
+  </si>
+  <si>
+    <t>GERD</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>67</v>
@@ -1183,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
